--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npatel/Dropbox/Oakland/Teaching/CSI4999/Winter2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onebe\Documents\Oakland University\CSI_4999\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE7BE32-866E-C949-94F1-81AD2D7E19C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2501D4-7438-4599-8736-84F39BD57A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="3200" windowWidth="28800" windowHeight="17600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
   <si>
-    <t>Wrote usecases UC1, UC2. Developed practice and proceedure for effectively using GIT</t>
-  </si>
-  <si>
     <t>You must provide accurate artifacts created by you. For example</t>
   </si>
   <si>
@@ -49,72 +46,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Pages 11, 12</t>
-  </si>
-  <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
-    <t>Design.doc</t>
-  </si>
-  <si>
-    <t>Page 3,4</t>
-  </si>
-  <si>
-    <t>Powerpoint</t>
-  </si>
-  <si>
-    <t>Sprint2.ppt</t>
-  </si>
-  <si>
-    <t>Slide 4 to 6</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Someclass.java</t>
-  </si>
-  <si>
-    <t>New code(20), Updated(3)</t>
-  </si>
-  <si>
-    <t>Project plan</t>
-  </si>
-  <si>
-    <t>plan.prj</t>
-  </si>
-  <si>
-    <t>task 1 to 5</t>
-  </si>
-  <si>
-    <t>Defect</t>
-  </si>
-  <si>
-    <t>Bugzilla</t>
-  </si>
-  <si>
-    <t>Bug ID - 1, 3, 7</t>
-  </si>
-  <si>
-    <t>testcase.java</t>
-  </si>
-  <si>
-    <t>Unit test</t>
-  </si>
-  <si>
-    <t>New code(23), Updated(1)</t>
-  </si>
-  <si>
-    <t>Test data</t>
-  </si>
-  <si>
-    <t>New test data (5)</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -133,9 +64,6 @@
     <t>Objectives</t>
   </si>
   <si>
-    <t>Example Template</t>
-  </si>
-  <si>
     <t>Your Name</t>
   </si>
   <si>
@@ -145,36 +73,6 @@
     <t>Sprint#</t>
   </si>
   <si>
-    <t>Research Report</t>
-  </si>
-  <si>
-    <t>Report.doc</t>
-  </si>
-  <si>
-    <t>page 1 to 20</t>
-  </si>
-  <si>
-    <t>Project Setup</t>
-  </si>
-  <si>
-    <t>Joining Team.doc</t>
-  </si>
-  <si>
-    <t>page 1 - 10</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>build scripts..</t>
-  </si>
-  <si>
-    <t>Speciifcs of the script and purpose</t>
-  </si>
-  <si>
-    <t>Requirements.doc</t>
-  </si>
-  <si>
     <t>Sprint # 1</t>
   </si>
   <si>
@@ -220,7 +118,25 @@
     <t>6[IT]</t>
   </si>
   <si>
-    <t>6[CS, IT]</t>
+    <t>Travis Thayer</t>
+  </si>
+  <si>
+    <t>Established communication via Discord, scheduled team meetings, created Power Point presentation, and researched/proposed configuration management options.</t>
+  </si>
+  <si>
+    <t>6,7[CS, IT]</t>
+  </si>
+  <si>
+    <t>Page 2: Config. Management; Sprint1.pptx</t>
+  </si>
+  <si>
+    <t>Sprint1.doc; Sprint1.pptx</t>
+  </si>
+  <si>
+    <t>Golf Player Time Management System (GPTMS)</t>
+  </si>
+  <si>
+    <t>GPTMS/docs/sprints/Sprint 1.docx; https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx</t>
   </si>
 </sst>
 </file>
@@ -378,21 +294,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,21 +320,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -434,12 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,6 +340,42 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,294 +659,239 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24">
+        <v>16</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="6" t="s">
+      <c r="H4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="7">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1036,11 +905,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,219 +918,219 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9">
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="I5" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+    </row>
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11">
-        <v>2</v>
-      </c>
-      <c r="I5" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onebe\Documents\Oakland University\CSI_4999\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2501D4-7438-4599-8736-84F39BD57A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B22BC7-A9E7-414F-82FE-0FBA77AC1A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
     <t>Golf Player Time Management System (GPTMS)</t>
   </si>
   <si>
-    <t>GPTMS/docs/sprints/Sprint 1.docx; https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx</t>
+    <t>https://github.com/quentinxs/GPTMS/blob/master/docs/sprints/Sprint%201.docx; https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx</t>
   </si>
 </sst>
 </file>
@@ -320,6 +320,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -327,6 +357,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,42 +376,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,7 +660,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -676,40 +676,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
@@ -729,169 +729,164 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24">
+      <c r="B4" s="20"/>
+      <c r="C4" s="13">
         <v>16</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -905,6 +900,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -928,47 +928,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onebe\Documents\Oakland University\CSI_4999\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B22BC7-A9E7-414F-82FE-0FBA77AC1A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89678760-EC08-4336-8198-870DCF0E9641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Sprint # 12</t>
   </si>
   <si>
-    <t>Example Project</t>
-  </si>
-  <si>
     <t>6[CS]</t>
   </si>
   <si>
@@ -121,12 +118,6 @@
     <t>Travis Thayer</t>
   </si>
   <si>
-    <t>Established communication via Discord, scheduled team meetings, created Power Point presentation, and researched/proposed configuration management options.</t>
-  </si>
-  <si>
-    <t>6,7[CS, IT]</t>
-  </si>
-  <si>
     <t>Page 2: Config. Management; Sprint1.pptx</t>
   </si>
   <si>
@@ -137,6 +128,12 @@
   </si>
   <si>
     <t>https://github.com/quentinxs/GPTMS/blob/master/docs/sprints/Sprint%201.docx; https://github.com/quentinxs/GPTMS/blob/travis/docs/presentations/Sprint%201.pptx</t>
+  </si>
+  <si>
+    <t>3, 5</t>
+  </si>
+  <si>
+    <t>Established communication via Discord, scheduled team meetings, created Power Point presentation, and proposed configuration management options.</t>
   </si>
 </sst>
 </file>
@@ -659,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -681,7 +678,7 @@
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -695,7 +692,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
@@ -738,19 +735,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -914,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -948,7 +945,7 @@
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -993,10 +990,10 @@
         <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1032,14 +1029,30 @@
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onebe\Documents\Oakland University\CSI_4999\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89678760-EC08-4336-8198-870DCF0E9641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304EC260-41BA-488D-999E-AC68F535EDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>Established communication via Discord, scheduled team meetings, created Power Point presentation, and proposed configuration management options.</t>
+  </si>
+  <si>
+    <t>UseCaseDiagram.mdj; DomainClassDiagram.mdj; GCP (gptms-vm)</t>
+  </si>
+  <si>
+    <t>Setup Bitnami LAMP stack on GCP virtual machine, and installed Python and Flask. Configured SSH keys for back-end team and created secure tunnel for access to phpmyadmin. Created the Use Case Diagram and also the Domain Class Diagram based on the Base Diagram. Lastly, I helped schedule our team meetings.</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/travis/docs/diagrams; https://github.com/quentinxs/GPTMS/tree/travis/docs/presentations; 34.70.164.45; Discord</t>
+  </si>
+  <si>
+    <t>3, 5, 6[IT], 6[CS]</t>
+  </si>
+  <si>
+    <t>Sprint2.pptx; UseCaseDiagram.mdj; DomainClassDiagram.mdj; GCP (34.70.164.45)</t>
   </si>
 </sst>
 </file>
@@ -291,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -317,21 +332,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,24 +368,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -373,6 +379,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -667,46 +685,46 @@
     <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="38.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
@@ -727,163 +745,180 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="13">
+      <c r="B4" s="13"/>
+      <c r="C4" s="27">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11">
+        <v>16</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -897,11 +932,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -925,47 +955,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1029,28 +1059,28 @@
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>0</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="11">
         <v>0</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>0</v>
       </c>
     </row>

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onebe\Documents\Oakland University\CSI_4999\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304EC260-41BA-488D-999E-AC68F535EDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005FFDC2-C49F-490B-A994-CDC9DF9A8306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -306,17 +306,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,23 +334,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,6 +358,24 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,18 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -691,234 +687,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="19" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="27">
+      <c r="B4" s="19"/>
+      <c r="C4" s="11">
         <v>16</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11">
+      <c r="B5" s="19"/>
+      <c r="C5" s="9">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -932,6 +923,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -941,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -955,225 +951,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>0</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>5</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>2</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\onebe\Documents\Oakland University\CSI_4999\GPTMS\docs\efforts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005FFDC2-C49F-490B-A994-CDC9DF9A8306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC591ABF-313D-4E65-ADEA-D47CC1C6A68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Sprint2.pptx; UseCaseDiagram.mdj; DomainClassDiagram.mdj; GCP (34.70.164.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switched from Python/Flask to PHP/Apache for easier MVC integration. Created an endpoint for the login page and registration page. Created a User class, user controller, SQL connection via mysqli, and related SQL queries for login and registration funtionality. </t>
+  </si>
+  <si>
+    <t>profileController.php; ProfileQueries.php; databaseConnection.php; User.php</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/blob/travis/api/User/User.php; https://github.com/quentinxs/GPTMS/blob/travis/api/User/profileController.php; https://github.com/quentinxs/GPTMS/blob/travis/api/User/profileQueries.php</t>
   </si>
 </sst>
 </file>
@@ -346,6 +355,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -356,24 +383,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -687,40 +696,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -741,10 +750,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -765,10 +774,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="9">
         <v>16</v>
       </c>
@@ -788,23 +797,35 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="9">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -813,10 +834,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -825,10 +846,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -837,10 +858,10 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -849,10 +870,10 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -861,10 +882,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -873,10 +894,10 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -885,10 +906,10 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
@@ -897,10 +918,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -910,6 +931,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -923,11 +949,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -937,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -966,19 +987,19 @@
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
@@ -1113,14 +1134,30 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC591ABF-313D-4E65-ADEA-D47CC1C6A68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC900955-291C-483D-8299-F0F24A768D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>https://github.com/quentinxs/GPTMS/blob/travis/api/User/User.php; https://github.com/quentinxs/GPTMS/blob/travis/api/User/profileController.php; https://github.com/quentinxs/GPTMS/blob/travis/api/User/profileQueries.php</t>
+  </si>
+  <si>
+    <t>userController.php; userQueries.php; profile.php; .htaccess;  README.md; 404.php; courseController.php; courseQueries.php</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/travis/api/courses/*; https://github.com/quentinxs/GPTMS/tree/travis/api/errors/*; https://github.com/quentinxs/GPTMS/tree/travis/api/users/*</t>
+  </si>
+  <si>
+    <t>Created two controllers for the users and courses collections (endpoints). Created services and sub-services for the users and courses collections. Created corresponding functions for services that are used to query the database via mysqli. Programmmed proper http method and data validation and filtering; along with SQL parameterization. Created .htaccess files for directory navigation and custom error caching. Created README.md files for each collection/service.</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5, 6[CS]</t>
   </si>
 </sst>
 </file>
@@ -315,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,6 +408,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -679,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -821,17 +836,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="C7" s="9">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -959,7 +986,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1163,14 +1190,30 @@
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC900955-291C-483D-8299-F0F24A768D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4C0DB-D16E-4CD2-839B-93C0170ED7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>2, 3, 4, 5, 6[CS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added a document resource and to all URIs and expanded on URI path naming validation. Updated all the README.md files in api directory. Wrote the controller logic and SQL queries to update and/or delete an existing user profile. Adjusted relationships and added a Tee table to ERD in-order to better accomidate the number of tees available per course. Adusted relationships in the ERD pertaining to a player's score to allow tracking a player's score per hole per course. Changed Role table to Employee table to narrow the project scope. Created a new data insertion and database creation script for the newly updated ERD. Added a code of conduct to the project documentation. </t>
+  </si>
+  <si>
+    <t>userMngmtController.php; README.md (3 total); courseMngmtController.php; userMngmtQueries.php; courseMngmtQueries.php; GPTMS-ERD.mwb; Database_Data_Insertion_Script.sql; Database_Creation_Script.sql; .gitignore; CODE_OF_CONDUCT.md</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/travis/api/user-management/*; https://github.com/quentinxs/GPTMS/tree/travis/api/course-management/*; https://github.com/quentinxs/GPTMS/blob/travis/api/README.md; https://github.com/quentinxs/GPTMS/blob/travis/CODE_OF_CONDUCT.md; https://github.com/quentinxs/GPTMS/blob/travis/api/database-management/Database_Creation_Script.sql; https://github.com/quentinxs/GPTMS/blob/travis/api/database-management/Database_Data_Insertion_Script.sql; https://github.com/quentinxs/GPTMS/blob/travis/api/database-management/GPTMS-ERD.mwb</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5, 6[IT]</t>
   </si>
 </sst>
 </file>
@@ -367,6 +379,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,18 +412,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -408,9 +423,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -705,46 +717,46 @@
     <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" customWidth="1"/>
     <col min="7" max="7" width="38.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -765,10 +777,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -789,10 +801,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="9">
         <v>16</v>
       </c>
@@ -813,10 +825,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="9">
         <v>16</v>
       </c>
@@ -837,10 +849,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9">
         <v>24</v>
       </c>
@@ -853,30 +865,42 @@
       <c r="F7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:8" ht="280.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="9">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -885,10 +909,10 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -897,10 +921,10 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -909,10 +933,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -921,10 +945,10 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -933,10 +957,10 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
@@ -945,10 +969,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -958,11 +982,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -976,6 +995,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -985,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -999,47 +1023,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1219,14 +1243,30 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4C0DB-D16E-4CD2-839B-93C0170ED7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA320FC-D28A-4C20-9EA5-95ABDA29CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>2, 3, 4, 5, 6[IT]</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>Added URIs for the party management document to manage a players score. Updated ERD to include a hints entity that relates to course. Fixed the history queries. Created URIs for returning all active parties and created URI for returning all course, hole, and tee data.</t>
+  </si>
+  <si>
+    <t>PartyMngmtController.php; PartyMngmtQueries.php; GPTMS-ERD.mwb; userMngmtQueries.php;  userMngmtController.php</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/travis/api/party-management/*; https://github.com/quentinxs/GPTMS/tree/travis/api/user-management/*; https://github.com/quentinxs/GPTMS/blob/travis/api/database-management/GPTMS-ERD.mwb</t>
   </si>
 </sst>
 </file>
@@ -339,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -382,6 +394,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -394,24 +424,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -423,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -723,40 +738,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -777,10 +792,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -801,10 +816,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="9">
         <v>16</v>
       </c>
@@ -825,10 +840,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="9">
         <v>16</v>
       </c>
@@ -849,10 +864,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9">
         <v>24</v>
       </c>
@@ -873,10 +888,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="280.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="9">
         <v>24</v>
       </c>
@@ -896,23 +911,35 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="9">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -921,10 +948,10 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -933,10 +960,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -945,10 +972,10 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -957,10 +984,10 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
@@ -969,10 +996,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -982,6 +1009,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -995,11 +1027,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1009,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1038,19 +1065,19 @@
       <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
@@ -1272,14 +1299,30 @@
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">

--- a/docs/efforts/Travis Thayer.xlsx
+++ b/docs/efforts/Travis Thayer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GPTMS\docs\efforts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA320FC-D28A-4C20-9EA5-95ABDA29CFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3AE414-AD9E-4844-B437-69E2D8970491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evidence" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Brief Description of Acomplishments</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>https://github.com/quentinxs/GPTMS/tree/travis/api/party-management/*; https://github.com/quentinxs/GPTMS/tree/travis/api/user-management/*; https://github.com/quentinxs/GPTMS/blob/travis/api/database-management/GPTMS-ERD.mwb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added URI to update party location, updated the start-round URI to return party course hole and tee data. Updated the the hole table to include helpful hints attribute. Created a URI to return servies/assistance. Helped to create a new document "employee management", and helped create the URIs and SQL queries for employee CRUD operations. </t>
+  </si>
+  <si>
+    <t>CourseMngmtController.php; CourseMngmtQueries.php; PartyMngmtController.php; PartyMngmtQueries.php; ERD.mwb; GameMngmtController.php; GameMngmtQueries.php; README.md</t>
+  </si>
+  <si>
+    <t>https://github.com/quentinxs/GPTMS/tree/travis/api/party-management/*; https://github.com/quentinxs/GPTMS/tree/travis/api/game-management/; https://github.com/quentinxs/GPTMS/tree/travis/api/course-management/; https://github.com/quentinxs/GPTMS/blob/travis/api/database-management/GPTMS-ERD.mwb</t>
+  </si>
+  <si>
+    <t>1, 3, 6[CS]</t>
   </si>
 </sst>
 </file>
@@ -394,6 +406,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -412,18 +439,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,9 +450,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,7 +734,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -738,40 +750,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -792,10 +804,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="11">
         <v>16</v>
       </c>
@@ -816,10 +828,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="78" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="9">
         <v>16</v>
       </c>
@@ -840,10 +852,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="9">
         <v>16</v>
       </c>
@@ -864,10 +876,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="9">
         <v>24</v>
       </c>
@@ -888,10 +900,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="280.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="9">
         <v>24</v>
       </c>
@@ -912,10 +924,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="9">
         <v>24</v>
       </c>
@@ -928,30 +940,42 @@
       <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:8" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="9">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -960,10 +984,10 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -972,10 +996,10 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -984,10 +1008,10 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
@@ -996,10 +1020,10 @@
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="16"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -1009,11 +1033,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A2:B2"/>
@@ -1027,6 +1046,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1037,7 +1061,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1050,47 +1074,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1328,14 +1352,30 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
